--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_8_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_8_2.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_10</t>
+          <t>model_8_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3604845324989414</v>
+        <v>0.6501110450060772</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.54554323631053</v>
+        <v>-0.2284759110106034</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.204116412862095</v>
+        <v>-0.2869403027450084</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.207318417558702</v>
+        <v>-0.05205087385175955</v>
       </c>
       <c r="F2" t="n">
-        <v>1.505655527114868</v>
+        <v>0.3872239887714386</v>
       </c>
       <c r="G2" t="n">
-        <v>7.60319709777832</v>
+        <v>1.441739320755005</v>
       </c>
       <c r="H2" t="n">
-        <v>1.705862045288086</v>
+        <v>0.6524465680122375</v>
       </c>
       <c r="I2" t="n">
-        <v>4.827980995178223</v>
+        <v>1.070307731628418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_9</t>
+          <t>model_8_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3086028380559276</v>
+        <v>0.6684568114876195</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.17644633396143</v>
+        <v>-0.1978381252582904</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.98319068070792</v>
+        <v>-0.4178504393717983</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.923465457758119</v>
+        <v>-0.06403831400476112</v>
       </c>
       <c r="F3" t="n">
-        <v>1.448237776756287</v>
+        <v>0.366920679807663</v>
       </c>
       <c r="G3" t="n">
-        <v>7.396020889282227</v>
+        <v>1.40578281879425</v>
       </c>
       <c r="H3" t="n">
-        <v>1.534878015518188</v>
+        <v>0.7188147306442261</v>
       </c>
       <c r="I3" t="n">
-        <v>4.637835502624512</v>
+        <v>1.082503199577332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_8</t>
+          <t>model_8_2_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2891005375325966</v>
+        <v>0.691642624404355</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.08530183125445</v>
+        <v>0.01192194045987316</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8608346414146313</v>
+        <v>-1.034139813351757</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.816508412129354</v>
+        <v>-0.08045851275184779</v>
       </c>
       <c r="F4" t="n">
-        <v>1.426654577255249</v>
+        <v>0.3412607312202454</v>
       </c>
       <c r="G4" t="n">
-        <v>7.344860553741455</v>
+        <v>1.159608364105225</v>
       </c>
       <c r="H4" t="n">
-        <v>1.440181255340576</v>
+        <v>1.0312579870224</v>
       </c>
       <c r="I4" t="n">
-        <v>4.566187858581543</v>
+        <v>1.099208235740662</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_6</t>
+          <t>model_8_2_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2722554046069154</v>
+        <v>0.6937162513163642</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.98495193103633</v>
+        <v>0.020136194692009</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.7728271216450755</v>
+        <v>-1.040765842987379</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.724142057615199</v>
+        <v>-0.07699364442631551</v>
       </c>
       <c r="F5" t="n">
-        <v>1.40801203250885</v>
+        <v>0.3389658629894257</v>
       </c>
       <c r="G5" t="n">
-        <v>7.288533687591553</v>
+        <v>1.149968147277832</v>
       </c>
       <c r="H5" t="n">
-        <v>1.372068405151367</v>
+        <v>1.034617185592651</v>
       </c>
       <c r="I5" t="n">
-        <v>4.504314422607422</v>
+        <v>1.095683336257935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_7</t>
+          <t>model_8_2_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2646349108462815</v>
+        <v>0.6966624769836658</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.87949813716961</v>
+        <v>0.03124661477850155</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7834566831621823</v>
+        <v>-1.04546742598412</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.683141185927448</v>
+        <v>-0.07131235925591106</v>
       </c>
       <c r="F6" t="n">
-        <v>1.399578213691711</v>
+        <v>0.3357052505016327</v>
       </c>
       <c r="G6" t="n">
-        <v>7.229341983795166</v>
+        <v>1.136929035186768</v>
       </c>
       <c r="H6" t="n">
-        <v>1.380295038223267</v>
+        <v>1.037000894546509</v>
       </c>
       <c r="I6" t="n">
-        <v>4.47684907913208</v>
+        <v>1.089903473854065</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_11</t>
+          <t>model_8_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.243478890839901</v>
+        <v>0.6967424061097212</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.5449248871836</v>
+        <v>0.0325015632072132</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8525675598606457</v>
+        <v>-1.039663732075012</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.572296983642976</v>
+        <v>-0.06918369787986389</v>
       </c>
       <c r="F7" t="n">
-        <v>1.376164674758911</v>
+        <v>0.335616797208786</v>
       </c>
       <c r="G7" t="n">
-        <v>7.041543960571289</v>
+        <v>1.135456204414368</v>
       </c>
       <c r="H7" t="n">
-        <v>1.433782935142517</v>
+        <v>1.034058570861816</v>
       </c>
       <c r="I7" t="n">
-        <v>4.402597427368164</v>
+        <v>1.087737798690796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_12</t>
+          <t>model_8_2_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2117117490557987</v>
+        <v>0.6968616334442568</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.28883348205687</v>
+        <v>0.03038969304723527</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.746138457797394</v>
+        <v>-1.044859842917171</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.400826524630881</v>
+        <v>-0.07169477239891564</v>
       </c>
       <c r="F8" t="n">
-        <v>1.341007947921753</v>
+        <v>0.3354848325252533</v>
       </c>
       <c r="G8" t="n">
-        <v>6.89779806137085</v>
+        <v>1.137934684753418</v>
       </c>
       <c r="H8" t="n">
-        <v>1.351412892341614</v>
+        <v>1.03669273853302</v>
       </c>
       <c r="I8" t="n">
-        <v>4.287734508514404</v>
+        <v>1.090292572975159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_23</t>
+          <t>model_8_2_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1872833683503454</v>
+        <v>0.6975552720109063</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.31219469269438</v>
+        <v>0.0323578303608687</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4939017615830097</v>
+        <v>-1.050848659991428</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.274049111080521</v>
+        <v>-0.07189680784663599</v>
       </c>
       <c r="F9" t="n">
-        <v>1.3139728307724</v>
+        <v>0.3347172141075134</v>
       </c>
       <c r="G9" t="n">
-        <v>6.910910129547119</v>
+        <v>1.135624766349792</v>
       </c>
       <c r="H9" t="n">
-        <v>1.156195998191833</v>
+        <v>1.039728879928589</v>
       </c>
       <c r="I9" t="n">
-        <v>4.20280933380127</v>
+        <v>1.090498089790344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_24</t>
+          <t>model_8_2_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1532402701743878</v>
+        <v>0.6996089075163761</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.9157049243636</v>
+        <v>0.03878159183018104</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4769614007917911</v>
+        <v>-1.043675682176504</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.088950915445222</v>
+        <v>-0.06629152750899192</v>
       </c>
       <c r="F10" t="n">
-        <v>1.276297211647034</v>
+        <v>0.332444429397583</v>
       </c>
       <c r="G10" t="n">
-        <v>6.688358783721924</v>
+        <v>1.128085851669312</v>
       </c>
       <c r="H10" t="n">
-        <v>1.14308500289917</v>
+        <v>1.036092519760132</v>
       </c>
       <c r="I10" t="n">
-        <v>4.078817844390869</v>
+        <v>1.084795594215393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_5</t>
+          <t>model_8_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1503432423654834</v>
+        <v>0.699814601877117</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.01806341903726</v>
+        <v>0.03918054699337492</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3270364992210306</v>
+        <v>-1.039085181707728</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.052845018507362</v>
+        <v>-0.06497032077728071</v>
       </c>
       <c r="F11" t="n">
-        <v>1.273090958595276</v>
+        <v>0.3322167992591858</v>
       </c>
       <c r="G11" t="n">
-        <v>6.745813369750977</v>
+        <v>1.127617716789246</v>
       </c>
       <c r="H11" t="n">
-        <v>1.027051568031311</v>
+        <v>1.033765077590942</v>
       </c>
       <c r="I11" t="n">
-        <v>4.054631233215332</v>
+        <v>1.083451271057129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_22</t>
+          <t>model_8_2_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1148038757353249</v>
+        <v>0.7031287059214336</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.50218841759282</v>
+        <v>0.04205024970297155</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.428196284765872</v>
+        <v>-1.011910822952106</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.878998050155271</v>
+        <v>-0.05684837325465453</v>
       </c>
       <c r="F12" t="n">
-        <v>1.23375928401947</v>
+        <v>0.3285490572452545</v>
       </c>
       <c r="G12" t="n">
-        <v>6.456248760223389</v>
+        <v>1.124249935150146</v>
       </c>
       <c r="H12" t="n">
-        <v>1.105343580245972</v>
+        <v>1.019988536834717</v>
       </c>
       <c r="I12" t="n">
-        <v>3.938175916671753</v>
+        <v>1.075188517570496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_21</t>
+          <t>model_8_2_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.09666296453323953</v>
+        <v>0.7035206987778346</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.26607268471336</v>
+        <v>0.04293746120300779</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4380336152640993</v>
+        <v>-1.009252619927862</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.779602750048839</v>
+        <v>-0.05568230346306713</v>
       </c>
       <c r="F13" t="n">
-        <v>1.213682770729065</v>
+        <v>0.3281152248382568</v>
       </c>
       <c r="G13" t="n">
-        <v>6.323716163635254</v>
+        <v>1.123208522796631</v>
       </c>
       <c r="H13" t="n">
-        <v>1.112957119941711</v>
+        <v>1.018640756607056</v>
       </c>
       <c r="I13" t="n">
-        <v>3.871593713760376</v>
+        <v>1.074002146720886</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_19</t>
+          <t>model_8_2_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09186502474270752</v>
+        <v>0.7037712431225616</v>
       </c>
       <c r="C14" t="n">
-        <v>-10.25897508982696</v>
+        <v>0.04390346390768318</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3950797421150603</v>
+        <v>-1.008551266305151</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.753100343661985</v>
+        <v>-0.05492494172548756</v>
       </c>
       <c r="F14" t="n">
-        <v>1.208372950553894</v>
+        <v>0.3278379440307617</v>
       </c>
       <c r="G14" t="n">
-        <v>6.319731712341309</v>
+        <v>1.122074842453003</v>
       </c>
       <c r="H14" t="n">
-        <v>1.079713106155396</v>
+        <v>1.018285274505615</v>
       </c>
       <c r="I14" t="n">
-        <v>3.853841066360474</v>
+        <v>1.07323169708252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_13</t>
+          <t>model_8_2_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.07609008421863872</v>
+        <v>0.7039983757709021</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.769840265706366</v>
+        <v>0.04500844951477445</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.629987460904146</v>
+        <v>-1.008391969522505</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.663834575621228</v>
+        <v>-0.05421013865179836</v>
       </c>
       <c r="F15" t="n">
-        <v>1.190914750099182</v>
+        <v>0.3275865912437439</v>
       </c>
       <c r="G15" t="n">
-        <v>6.045177459716797</v>
+        <v>1.12077808380127</v>
       </c>
       <c r="H15" t="n">
-        <v>1.261518597602844</v>
+        <v>1.0182044506073</v>
       </c>
       <c r="I15" t="n">
-        <v>3.794044017791748</v>
+        <v>1.07250452041626</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_20</t>
+          <t>model_8_2_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.06660491699196802</v>
+        <v>0.7042327654239936</v>
       </c>
       <c r="C16" t="n">
-        <v>-9.945211272708836</v>
+        <v>0.04621969836469719</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3985262930568132</v>
+        <v>-1.00828130329143</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.615784459627345</v>
+        <v>-0.05344758010656414</v>
       </c>
       <c r="F16" t="n">
-        <v>1.18041729927063</v>
+        <v>0.3273271918296814</v>
       </c>
       <c r="G16" t="n">
-        <v>6.143614292144775</v>
+        <v>1.119356632232666</v>
       </c>
       <c r="H16" t="n">
-        <v>1.082380652427673</v>
+        <v>1.018148422241211</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7618567943573</v>
+        <v>1.071728706359863</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_14</t>
+          <t>model_8_2_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.04690407596705004</v>
+        <v>0.704478071791208</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.491434706664467</v>
+        <v>0.04751543107822664</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5667207105688721</v>
+        <v>-1.008179240135069</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.505932699526238</v>
+        <v>-0.05263378690501441</v>
       </c>
       <c r="F17" t="n">
-        <v>1.158614277839661</v>
+        <v>0.3270556926727295</v>
       </c>
       <c r="G17" t="n">
-        <v>5.888906478881836</v>
+        <v>1.117835879325867</v>
       </c>
       <c r="H17" t="n">
-        <v>1.21255362033844</v>
+        <v>1.018096685409546</v>
       </c>
       <c r="I17" t="n">
-        <v>3.68826961517334</v>
+        <v>1.070900797843933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_18</t>
+          <t>model_8_2_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008843343568422868</v>
+        <v>0.7047355441063143</v>
       </c>
       <c r="C18" t="n">
-        <v>-9.030604942492335</v>
+        <v>0.04887759477256337</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3881970545995364</v>
+        <v>-1.008051141808435</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.204439844147082</v>
+        <v>-0.05176879775691412</v>
       </c>
       <c r="F18" t="n">
-        <v>1.096918344497681</v>
+        <v>0.3267707526683807</v>
       </c>
       <c r="G18" t="n">
-        <v>5.630240440368652</v>
+        <v>1.116237163543701</v>
       </c>
       <c r="H18" t="n">
-        <v>1.074386358261108</v>
+        <v>1.018031716346741</v>
       </c>
       <c r="I18" t="n">
-        <v>3.486308336257935</v>
+        <v>1.070020794868469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_15</t>
+          <t>model_8_2_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01064814508156164</v>
+        <v>0.7050008187282305</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.969896579033845</v>
+        <v>0.05029031934991191</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4171430286848057</v>
+        <v>-1.007894644046823</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.193248202553424</v>
+        <v>-0.05087117656134588</v>
       </c>
       <c r="F19" t="n">
-        <v>1.094920873641968</v>
+        <v>0.3264771401882172</v>
       </c>
       <c r="G19" t="n">
-        <v>5.596164703369141</v>
+        <v>1.114579319953918</v>
       </c>
       <c r="H19" t="n">
-        <v>1.096788883209229</v>
+        <v>1.0179523229599</v>
       </c>
       <c r="I19" t="n">
-        <v>3.478811502456665</v>
+        <v>1.06910765171051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_17</t>
+          <t>model_8_2_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01324192767149923</v>
+        <v>0.7050678249318738</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.951616087868112</v>
+        <v>0.05064912868551275</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4076236163831919</v>
+        <v>-1.007856261778156</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.179962817015618</v>
+        <v>-0.05064404158262836</v>
       </c>
       <c r="F20" t="n">
-        <v>1.092050433158875</v>
+        <v>0.3264029920101166</v>
       </c>
       <c r="G20" t="n">
-        <v>5.585903644561768</v>
+        <v>1.114158153533936</v>
       </c>
       <c r="H20" t="n">
-        <v>1.089421391487122</v>
+        <v>1.017932891845703</v>
       </c>
       <c r="I20" t="n">
-        <v>3.469912052154541</v>
+        <v>1.068876624107361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_16</t>
+          <t>model_8_2_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02800384823906743</v>
+        <v>0.705974824941326</v>
       </c>
       <c r="C21" t="n">
-        <v>-8.791947338409416</v>
+        <v>0.05377372365305899</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3893737287408969</v>
+        <v>-1.00278834075388</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.099210162059117</v>
+        <v>-0.04754644329157265</v>
       </c>
       <c r="F21" t="n">
-        <v>1.075713396072388</v>
+        <v>0.3253992199897766</v>
       </c>
       <c r="G21" t="n">
-        <v>5.496280193328857</v>
+        <v>1.110491275787354</v>
       </c>
       <c r="H21" t="n">
-        <v>1.075297117233276</v>
+        <v>1.015363574028015</v>
       </c>
       <c r="I21" t="n">
-        <v>3.415817975997925</v>
+        <v>1.065725088119507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_4</t>
+          <t>model_8_2_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5835122345934636</v>
+        <v>0.7061026026742423</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.75432257032214</v>
+        <v>0.05427571074660342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2972015964967862</v>
+        <v>-1.002174491366491</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.047566888492285</v>
+        <v>-0.0470965421061198</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4609291851520538</v>
+        <v>0.325257807970047</v>
       </c>
       <c r="G22" t="n">
-        <v>2.107324361801147</v>
+        <v>1.109902024269104</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5439264178276062</v>
+        <v>1.015052437782288</v>
       </c>
       <c r="I22" t="n">
-        <v>1.371607780456543</v>
+        <v>1.065267443656921</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_3</t>
+          <t>model_8_2_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7314356161037068</v>
+        <v>0.7062343741146515</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7569221464071467</v>
+        <v>0.05479821376583538</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1702085642463121</v>
+        <v>-1.001576144690069</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2305452794935847</v>
+        <v>-0.04663972600690114</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2972216308116913</v>
+        <v>0.3251119554042816</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9861713051795959</v>
+        <v>1.109288811683655</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6422119140625</v>
+        <v>1.014749050140381</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8243077993392944</v>
+        <v>1.064802646636963</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_1</t>
+          <t>model_8_2_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7856315788266256</v>
+        <v>0.7063650299443551</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2135018262851363</v>
+        <v>0.05537683076841449</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2265592006871069</v>
+        <v>-1.001238488438241</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2305820895289633</v>
+        <v>-0.04620082644380696</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2372426688671112</v>
+        <v>0.3249673843383789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4414662718772888</v>
+        <v>1.108609676361084</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5985996723175049</v>
+        <v>1.014577865600586</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5154114961624146</v>
+        <v>1.064356207847595</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_2</t>
+          <t>model_8_2_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8035357167759231</v>
+        <v>0.7064618117317918</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2985516188479389</v>
+        <v>0.0558084677248083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2419462396771794</v>
+        <v>-1.000898655371177</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2766772549210831</v>
+        <v>-0.04585902341623083</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2174280732870102</v>
+        <v>0.3248602747917175</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3937272727489471</v>
+        <v>1.108103275299072</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5866909623146057</v>
+        <v>1.014405608177185</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4845335781574249</v>
+        <v>1.064008474349976</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_8_2_0</t>
+          <t>model_8_2_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8410463347973438</v>
+        <v>0.7086049953795519</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8216950565728777</v>
+        <v>0.01761939923708389</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9105566832623722</v>
+        <v>-0.6739086711214592</v>
       </c>
       <c r="E26" t="n">
-        <v>0.872271810629244</v>
+        <v>0.007500468787655534</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1759148687124252</v>
+        <v>0.322488397359848</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1000836715102196</v>
+        <v>1.152921915054321</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06922408938407898</v>
+        <v>0.8486298322677612</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08556153625249863</v>
+        <v>1.009722948074341</v>
       </c>
     </row>
   </sheetData>
